--- a/Estadistica/Felix - Resoluciones/TP 6.xlsx
+++ b/Estadistica/Felix - Resoluciones/TP 6.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNTDF-Sistemas\Estadistica\Felix - Resoluciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7DEFA9-0B5E-4419-97A2-E24863580BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="11460" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="186">
   <si>
     <t>Ejercicio 1</t>
   </si>
@@ -586,27 +592,36 @@
   </si>
   <si>
     <t>P(TUA3) =</t>
+  </si>
+  <si>
+    <t>P(M) =</t>
+  </si>
+  <si>
+    <t>P(T^A1^M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="0.00_ "/>
+    <numFmt numFmtId="169" formatCode="0.0_ "/>
+    <numFmt numFmtId="170" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,7 +637,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -636,154 +650,9 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,228 +661,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1049,496 +732,289 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Coma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
-    <cellStyle name="Nota" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Salida" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
-    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1549,7 +1025,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1577,154 +1053,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1982,476 +1344,475 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="6.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="18" max="18" width="12.8571428571429"/>
+    <col min="18" max="18" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" ht="39" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="3">
         <v>2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="3">
         <v>4</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A6,", ",B$5,")")</f>
+      <c r="B6" s="35" t="str">
+        <f t="shared" ref="B6:G11" si="0">_xlfn.CONCAT("(",$A6,", ",B$5,")")</f>
         <v>(1, 1)</v>
       </c>
-      <c r="C6" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A6,", ",C$5,")")</f>
+      <c r="C6" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(1, 2)</v>
       </c>
-      <c r="D6" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A6,", ",D$5,")")</f>
+      <c r="D6" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(1, 3)</v>
       </c>
-      <c r="E6" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A6,", ",E$5,")")</f>
+      <c r="E6" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(1, 4)</v>
       </c>
-      <c r="F6" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A6,", ",F$5,")")</f>
+      <c r="F6" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(1, 5)</v>
       </c>
-      <c r="G6" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A6,", ",G$5,")")</f>
+      <c r="G6" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(1, 6)</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="8">
-        <f>SUM($I6,J$5)</f>
+      <c r="J6" s="4">
+        <f t="shared" ref="J6:O11" si="1">SUM($I6,J$5)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="8">
-        <f>SUM($I6,K$5)</f>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L6" s="8">
-        <f>SUM($I6,L$5)</f>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M6" s="8">
-        <f>SUM($I6,M$5)</f>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N6" s="8">
-        <f>SUM($I6,N$5)</f>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O6" s="8">
-        <f>SUM($I6,O$5)</f>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A7,", ",B$5,")")</f>
+      <c r="B7" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(2, 1)</v>
       </c>
-      <c r="C7" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A7,", ",C$5,")")</f>
+      <c r="C7" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(2, 2)</v>
       </c>
-      <c r="D7" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A7,", ",D$5,")")</f>
+      <c r="D7" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(2, 3)</v>
       </c>
-      <c r="E7" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A7,", ",E$5,")")</f>
+      <c r="E7" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(2, 4)</v>
       </c>
-      <c r="F7" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A7,", ",F$5,")")</f>
+      <c r="F7" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(2, 5)</v>
       </c>
-      <c r="G7" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A7,", ",G$5,")")</f>
+      <c r="G7" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(2, 6)</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="8">
-        <f>SUM($I7,J$5)</f>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K7" s="8">
-        <f>SUM($I7,K$5)</f>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L7" s="8">
-        <f>SUM($I7,L$5)</f>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M7" s="8">
-        <f>SUM($I7,M$5)</f>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N7" s="8">
-        <f>SUM($I7,N$5)</f>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O7" s="8">
-        <f>SUM($I7,O$5)</f>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A8,", ",B$5,")")</f>
+      <c r="B8" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(3, 1)</v>
       </c>
-      <c r="C8" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A8,", ",C$5,")")</f>
+      <c r="C8" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(3, 2)</v>
       </c>
-      <c r="D8" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A8,", ",D$5,")")</f>
+      <c r="D8" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(3, 3)</v>
       </c>
-      <c r="E8" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A8,", ",E$5,")")</f>
+      <c r="E8" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(3, 4)</v>
       </c>
-      <c r="F8" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A8,", ",F$5,")")</f>
+      <c r="F8" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(3, 5)</v>
       </c>
-      <c r="G8" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A8,", ",G$5,")")</f>
+      <c r="G8" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(3, 6)</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="8">
-        <f>SUM($I8,J$5)</f>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="8">
-        <f>SUM($I8,K$5)</f>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L8" s="8">
-        <f>SUM($I8,L$5)</f>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M8" s="8">
-        <f>SUM($I8,M$5)</f>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N8" s="8">
-        <f>SUM($I8,N$5)</f>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O8" s="8">
-        <f>SUM($I8,O$5)</f>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A9,", ",B$5,")")</f>
+      <c r="B9" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(4, 1)</v>
       </c>
-      <c r="C9" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A9,", ",C$5,")")</f>
+      <c r="C9" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(4, 2)</v>
       </c>
-      <c r="D9" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A9,", ",D$5,")")</f>
+      <c r="D9" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(4, 3)</v>
       </c>
-      <c r="E9" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A9,", ",E$5,")")</f>
+      <c r="E9" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(4, 4)</v>
       </c>
-      <c r="F9" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A9,", ",F$5,")")</f>
+      <c r="F9" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(4, 5)</v>
       </c>
-      <c r="G9" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A9,", ",G$5,")")</f>
+      <c r="G9" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(4, 6)</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="J9" s="8">
-        <f>SUM($I9,J$5)</f>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K9" s="8">
-        <f>SUM($I9,K$5)</f>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L9" s="8">
-        <f>SUM($I9,L$5)</f>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M9" s="8">
-        <f>SUM($I9,M$5)</f>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N9" s="8">
-        <f>SUM($I9,N$5)</f>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O9" s="8">
-        <f>SUM($I9,O$5)</f>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A10,", ",B$5,")")</f>
+      <c r="B10" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(5, 1)</v>
       </c>
-      <c r="C10" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A10,", ",C$5,")")</f>
+      <c r="C10" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(5, 2)</v>
       </c>
-      <c r="D10" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A10,", ",D$5,")")</f>
+      <c r="D10" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(5, 3)</v>
       </c>
-      <c r="E10" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A10,", ",E$5,")")</f>
+      <c r="E10" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(5, 4)</v>
       </c>
-      <c r="F10" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A10,", ",F$5,")")</f>
+      <c r="F10" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(5, 5)</v>
       </c>
-      <c r="G10" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A10,", ",G$5,")")</f>
+      <c r="G10" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(5, 6)</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="8">
-        <f>SUM($I10,J$5)</f>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K10" s="8">
-        <f>SUM($I10,K$5)</f>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L10" s="8">
-        <f>SUM($I10,L$5)</f>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M10" s="8">
-        <f>SUM($I10,M$5)</f>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N10" s="8">
-        <f>SUM($I10,N$5)</f>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O10" s="8">
-        <f>SUM($I10,O$5)</f>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A11,", ",B$5,")")</f>
+      <c r="B11" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(6, 1)</v>
       </c>
-      <c r="C11" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A11,", ",C$5,")")</f>
+      <c r="C11" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(6, 2)</v>
       </c>
-      <c r="D11" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A11,", ",D$5,")")</f>
+      <c r="D11" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(6, 3)</v>
       </c>
-      <c r="E11" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A11,", ",E$5,")")</f>
+      <c r="E11" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(6, 4)</v>
       </c>
-      <c r="F11" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A11,", ",F$5,")")</f>
+      <c r="F11" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(6, 5)</v>
       </c>
-      <c r="G11" s="54" t="str">
-        <f>_xlfn.CONCAT("(",$A11,", ",G$5,")")</f>
+      <c r="G11" s="35" t="str">
+        <f t="shared" si="0"/>
         <v>(6, 6)</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="2">
         <v>6</v>
       </c>
-      <c r="J11" s="8">
-        <f>SUM($I11,J$5)</f>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K11" s="8">
-        <f>SUM($I11,K$5)</f>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L11" s="8">
-        <f>SUM($I11,L$5)</f>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M11" s="8">
-        <f>SUM($I11,M$5)</f>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N11" s="8">
-        <f>SUM($I11,N$5)</f>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O11" s="8">
-        <f>SUM($I11,O$5)</f>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
       <c r="I13" t="s">
         <v>6</v>
       </c>
-      <c r="J13"/>
       <c r="K13">
         <f>COUNTIF(J6:O11,"&gt;=8")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+    <row r="14" spans="1:15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="I14" t="s">
         <v>7</v>
       </c>
@@ -2460,11 +1821,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16"/>
       <c r="C16">
         <f>COUNTIF(J6:O11,"&lt;6")</f>
         <v>10</v>
@@ -2473,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2486,45 +1846,43 @@
       </c>
       <c r="J17">
         <f>K13/K14</f>
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19"/>
-      <c r="E19" s="44"/>
-      <c r="I19" s="12" t="s">
+      <c r="E19" s="29"/>
+      <c r="I19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <f>C16/C17</f>
-        <v>0.277777777777778</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11">
+        <v>0.27777777777777801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="I21" t="s">
         <v>6</v>
       </c>
-      <c r="J21"/>
       <c r="K21">
         <f>COUNTIF(J6:O11,"=7")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="9:11">
+    <row r="22" spans="1:15">
       <c r="I22" t="s">
         <v>7</v>
       </c>
@@ -2533,18 +1891,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="1:15">
       <c r="I24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="9:10">
+    <row r="25" spans="1:15">
       <c r="I25" t="s">
         <v>9</v>
       </c>
       <c r="J25">
         <f>K21/K22</f>
-        <v>0.166666666666667</v>
+        <v>0.16666666666666699</v>
       </c>
     </row>
   </sheetData>
@@ -2557,300 +1915,298 @@
     <mergeCell ref="A13:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="8.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="7.14285714285714" customWidth="1"/>
-    <col min="9" max="9" width="6.42857142857143" customWidth="1"/>
-    <col min="10" max="10" width="8.42857142857143" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="22.95" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" ht="54" customHeight="1" spans="1:11">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="54" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" ht="15.75" spans="2:5">
-      <c r="B4" s="25" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="2:5">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:11" ht="15.6">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="14">
         <v>51</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="14">
         <v>29</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="14">
         <v>80</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="2:5">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:11" ht="15.6">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="14">
         <v>268</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="14">
         <v>145</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="14">
         <v>413</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:5">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:11" ht="15.6">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="14">
         <v>107</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="14">
         <v>42</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="14">
         <v>149</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:5">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:11" ht="15.6">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="14">
         <v>65</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="14">
         <v>21</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="14">
         <v>86</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:5">
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:11" ht="15.6">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="14">
         <v>29</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="14">
         <v>13</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="14">
         <v>42</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:5">
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="1:11" ht="15.6">
+      <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="14">
         <v>36</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="14">
         <v>25</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="14">
         <v>61</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="2:5">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:11" ht="15.6">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="14">
         <v>5</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="2:5">
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="1:11" ht="15.6">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="14">
         <v>561</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="14">
         <v>276</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="12">
         <v>837</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="3:6">
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:6">
+    <row r="13" spans="1:11" ht="15.6">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" ht="15.75" spans="3:6">
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:10">
-      <c r="A16" s="11" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="34">
         <f>C18/C19</f>
         <v>0.670250896057348</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="34"/>
       <c r="J16">
         <f>H18/H19</f>
-        <v>0.178016726403823</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="3:6">
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:8">
+        <v>0.17801672640382299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="34">
         <f>C12</f>
         <v>561</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="34"/>
       <c r="H18">
         <f>E7</f>
         <v>149</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="1:8">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="34">
         <f>E12</f>
         <v>837</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="34"/>
       <c r="H19">
         <f>E12</f>
         <v>837</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="3:6">
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:6">
-      <c r="A21" s="11" t="s">
+    <row r="20" spans="1:8" ht="15.6">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34">
         <f>D23*D24</f>
-        <v>0.162707741849839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.16270774184983899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2862,13 +2218,13 @@
         <v>0.329749103942652</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="1:8">
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24">
         <f>E6/E12</f>
-        <v>0.493428912783752</v>
+        <v>0.49342891278375201</v>
       </c>
     </row>
   </sheetData>
@@ -2877,162 +2233,154 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="17.1428571428571" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="24" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" ht="45" customHeight="1" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="45" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-    </row>
-    <row r="4" ht="15.75" spans="2:4">
-      <c r="B4" s="49" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6">
+      <c r="B4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="2:4">
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="1:13" ht="15.6">
+      <c r="B5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="14">
         <v>40</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <f>C5</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="2:4">
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="1:13" ht="15.6">
+      <c r="B6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="14">
         <v>80</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <f>C6+D5</f>
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:4">
-      <c r="B7" s="50" t="s">
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="B7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="14">
         <v>230</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <f>C7+D6</f>
         <v>350</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:4">
-      <c r="B8" s="50" t="s">
+    <row r="8" spans="1:13" ht="15.6">
+      <c r="B8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="14">
         <v>100</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <f>C8+D7</f>
         <v>450</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:4">
-      <c r="B9" s="50" t="s">
+    <row r="9" spans="1:13" ht="15.6">
+      <c r="B9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="14">
         <v>30</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <f>C9+D8</f>
         <v>480</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:4">
-      <c r="B10" s="50" t="s">
+    <row r="10" spans="1:13" ht="15.6">
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="14">
         <v>20</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <f>C10+D9</f>
         <v>500</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="2:3">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="1:13" ht="15.6">
+      <c r="B11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="14">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3040,54 +2388,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14">
         <f>C6</f>
         <v>80</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14">
         <f>D8</f>
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15">
         <f>C11</f>
         <v>500</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15">
         <f>C11</f>
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16">
         <f>B14/B15</f>
         <v>0.16</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16">
         <f>I14/I15</f>
         <v>0.9</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="L16">
@@ -3095,42 +2443,42 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="8:8">
+    <row r="17" spans="1:8">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="H18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23">
         <f>D5</f>
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24">
         <f>C11</f>
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25">
         <f>B23/B24</f>
         <v>0.08</v>
       </c>
@@ -3141,139 +2489,137 @@
     <mergeCell ref="A2:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85714285714286" customWidth="1"/>
-    <col min="2" max="2" width="11.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="5.28571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="7.71428571428571" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:11">
+      <c r="B4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:11">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="7" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>30</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="4">
         <f t="shared" ref="F6:F8" si="0">SUM(D6:E6)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:11">
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>50</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>40</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="1:11">
+      <c r="B8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="31">
         <v>20</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="31">
         <v>10</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:11">
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="45">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <f>SUM(D6:D8)</f>
         <v>100</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="4">
         <f>SUM(E6:E8)</f>
         <v>100</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="3">
         <f>SUM(D6:E8)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3282,22 +2628,22 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="18">
         <f>(B16+B17-B18)</f>
         <v>0.75</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="22">
         <f>H16+H17-H18</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -3345,21 +2691,21 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="26">
         <f>B24+B25-B26</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3368,7 +2714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3377,7 +2723,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -3391,165 +2737,163 @@
     <mergeCell ref="B4:C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="11.7142857142857"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="22.05" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" ht="45" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" ht="15.75" spans="2:6">
-      <c r="B4" s="25" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
+      <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="2:6">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="15">
         <f t="shared" ref="E5:E7" si="0">C5/C$8</f>
-        <v>0.111111111111111</v>
-      </c>
-      <c r="F5" s="29">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="F5" s="15">
         <f>E5</f>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="2:6">
-      <c r="B6" s="25" t="s">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="B6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="14">
         <v>30</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" ref="D6:D8" si="1">C6+D5</f>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D7" si="1">C6+D5</f>
         <v>40</v>
       </c>
-      <c r="E6" s="29">
-        <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F6" s="15">
         <f>E6+F5</f>
-        <v>0.444444444444444</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="2:6">
-      <c r="B7" s="25" t="s">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="B7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="14">
         <v>50</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="E7" s="29">
-        <f t="shared" si="0"/>
-        <v>0.555555555555556</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="F7" s="4">
         <f>E7+F6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:3">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="14">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="17">
         <f>E5</f>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3557,74 +2901,74 @@
       <c r="A17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="19">
         <f>1-B19</f>
-        <v>0.888888888888889</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="34"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="35" t="s">
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="21">
         <f>F5</f>
-        <v>0.111111111111111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="23">
         <f>E6</f>
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="40"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="41" t="s">
+      <c r="B27" s="25"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="27">
         <f>B13+B23</f>
-        <v>0.444444444444444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="22" t="s">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="28">
         <f>D17</f>
-        <v>0.888888888888889</v>
+        <v>0.88888888888888895</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3634,7 +2978,6 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="E5:E7" formula="1"/>
   </ignoredErrors>
@@ -3642,65 +2985,64 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="21" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3708,7 +3050,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -3716,15 +3058,15 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>106</v>
       </c>
       <c r="B7">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -3732,7 +3074,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -3740,7 +3082,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -3748,7 +3090,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -3757,11 +3099,11 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="10">
         <f>B5+B6+B7-B8-B9-B10+B11</f>
         <v>0.35</v>
       </c>
@@ -3771,160 +3113,158 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.4285714285714" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="10.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" ht="21" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" ht="37" customHeight="1" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="37.049999999999997" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="4" ht="40" customHeight="1" spans="2:6">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="40.049999999999997" customHeight="1">
+      <c r="B4" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:13">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="17">
+    <row r="6" spans="1:13">
+      <c r="B6" s="7">
         <v>105</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>720</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>480</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:13">
+      <c r="B7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>240</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>960</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:13">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>960</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>1440</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -3947,7 +3287,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3963,7 +3303,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
+    <row r="15" spans="1:13">
       <c r="E15" t="s">
         <v>132</v>
       </c>
@@ -3972,7 +3312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -3995,11 +3335,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4039,9 +3379,9 @@
       <c r="A23" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="8">
         <f>E6/E8</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E23" t="s">
         <v>143</v>
@@ -4055,9 +3395,9 @@
       <c r="A24" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="8">
         <f>E7/E8</f>
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="E24" t="s">
         <v>145</v>
@@ -4067,7 +3407,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4075,19 +3415,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="20">
+    <row r="27" spans="1:6">
+      <c r="B27" s="9">
         <f>F24*F16</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="20">
+    <row r="29" spans="1:6">
+      <c r="B29" s="9">
         <f>B24*F14</f>
         <v>0.4</v>
       </c>
@@ -4099,335 +3439,333 @@
     <mergeCell ref="B4:C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="6.57142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
-    <col min="10" max="11" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="2:11">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" ht="31.05" customHeight="1">
+      <c r="B1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="2:11">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1">
+      <c r="B2" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="3" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:11">
+      <c r="B7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <v>3</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <f t="shared" ref="J7:J11" si="0">SUM(D7+F7+H7)</f>
         <v>6</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="3">
         <f t="shared" ref="K7:K11" si="1">SUM(E7+G7+I7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:11">
+      <c r="B8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="4">
         <v>9</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:11">
+      <c r="B9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>4</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>6</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <v>13</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:11">
+      <c r="B10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>7</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:11">
+      <c r="B11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <f t="shared" ref="D11:I11" si="2">SUM(D7:D10)</f>
         <v>14</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:11">
+      <c r="B12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6">
+      <c r="C12" s="3"/>
+      <c r="D12" s="39">
         <f t="shared" ref="D12:H12" si="3">D11+E11</f>
         <v>30</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="I12" s="39"/>
+      <c r="J12" s="39">
         <f>J11+K11</f>
         <v>100</v>
       </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="K12" s="39"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -4443,7 +3781,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="1:11">
       <c r="F20" t="s">
         <v>170</v>
       </c>
@@ -4452,8 +3790,8 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
         <v>171</v>
       </c>
       <c r="F21" t="s">
@@ -4464,7 +3802,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:2">
+    <row r="23" spans="1:11" ht="16.95" customHeight="1">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -4473,20 +3811,20 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" ht="34" customHeight="1" spans="1:11">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:11" ht="34.049999999999997" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -4502,23 +3840,23 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" ht="37" customHeight="1" spans="1:11">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:11" ht="37.049999999999997" customHeight="1">
+      <c r="A29" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="F29" s="12" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="F29" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -4526,8 +3864,15 @@
         <f>F12/J12</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="F31" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="42">
+        <f>B31</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -4535,8 +3880,15 @@
         <f>(J9+K9)/J12</f>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="F32" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
+        <f>(J7+K7)/J12</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -4544,8 +3896,15 @@
         <f>(F9+G9)/J12</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="F33" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33">
+        <f>J11/J12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -4554,8 +3913,26 @@
         <v>0.59</v>
       </c>
     </row>
+    <row r="35" spans="1:7">
+      <c r="F35" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35">
+        <f>G31*G32*G33</f>
+        <v>1.125E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F25:K25"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="D4:K4"/>
@@ -4563,17 +3940,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>